--- a/info/RegisterMapping.xlsx
+++ b/info/RegisterMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20240312_QuanLyKhoAVS\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76449540-CAF1-40DD-A83E-073EE0454530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8195B3E1-08F9-466E-AE13-EBA6939EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="41">
   <si>
     <t>BD</t>
   </si>
@@ -108,15 +108,6 @@
     <t>shuttle 6</t>
   </si>
   <si>
-    <t>X. giá trị encoder.</t>
-  </si>
-  <si>
-    <t>Y. giá trị encoder.</t>
-  </si>
-  <si>
-    <t>Z. giá trị encoder.</t>
-  </si>
-  <si>
     <t>In/Out/Transfer</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Old Z</t>
   </si>
   <si>
-    <t>Vị trí trục X encoder</t>
-  </si>
-  <si>
     <t>X. giá trị vị trí.</t>
   </si>
   <si>
@@ -147,10 +135,19 @@
     <t>Z-trục đứng (tầng)</t>
   </si>
   <si>
-    <t>Vị trí trục Z encoder.</t>
-  </si>
-  <si>
     <t>Z. giá trị vị trí.</t>
+  </si>
+  <si>
+    <t>Y. giá trị chiều dài (m)</t>
+  </si>
+  <si>
+    <t>Vị trí trục X (cột)</t>
+  </si>
+  <si>
+    <t>Vị trí trục Z (tầng)</t>
+  </si>
+  <si>
+    <t>Dùng cho transfer</t>
   </si>
 </sst>
 </file>
@@ -204,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -264,11 +261,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -293,6 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,14 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +639,7 @@
     <col min="5" max="5" width="85.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,16 +656,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -673,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -687,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -704,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -721,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -738,10 +747,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -753,10 +765,11 @@
         <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -768,10 +781,11 @@
         <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
@@ -783,10 +797,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -800,10 +815,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -820,39 +836,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -861,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,16 +885,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -907,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
@@ -924,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -950,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
@@ -961,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,16 +1011,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -1035,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>19</v>
@@ -1052,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -1069,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
@@ -1095,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -1106,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1140,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>21</v>
@@ -1180,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>19</v>
@@ -1197,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>16</v>
@@ -1214,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>18</v>
@@ -1240,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
@@ -1251,16 +1267,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="2">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,16 +1301,16 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
@@ -1325,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="2">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -1342,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>16</v>
@@ -1359,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>18</v>
@@ -1385,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
@@ -1396,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,10 +1435,10 @@
         <v>15</v>
       </c>
       <c r="D51" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,16 +1446,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="2">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>21</v>
@@ -1470,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="2">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
@@ -1487,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>16</v>
@@ -1504,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="2">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>18</v>
@@ -1530,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
@@ -1541,16 +1557,16 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="D60" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="2">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>21</v>
@@ -1615,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="2">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>19</v>
@@ -1632,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>16</v>
@@ -1649,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="2">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>18</v>
@@ -1675,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>8</v>
@@ -1686,16 +1702,16 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,10 +1725,10 @@
         <v>15</v>
       </c>
       <c r="D69" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1720,16 +1736,16 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="D71" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>21</v>
@@ -1760,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="D72" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>19</v>
@@ -1777,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="2">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>16</v>
@@ -1794,18 +1810,18 @@
         <v>15</v>
       </c>
       <c r="D74" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -3407,18 +3423,19 @@
       <c r="E198" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A75:E75"/>
+  <mergeCells count="12">
+    <mergeCell ref="F7:F11"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A75:E75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
